--- a/report.xlsx
+++ b/report.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,11 +442,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.5" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="31" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="21.5" customWidth="1" min="2" max="2"/>
+    <col width="35.5" customWidth="1" min="3" max="3"/>
+    <col width="24.5" customWidth="1" min="4" max="4"/>
+    <col width="38.5" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -462,7 +462,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Средняя зарплата - Аналитик</t>
+          <t>Средняя зарплата - Программист</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -472,25 +472,178 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Количество вакансий - Аналитик</t>
+          <t>Количество вакансий - Программист</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>2022</v>
+        <v>2007</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>204316</v>
+        <v>38916</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>116850</v>
+        <v>43770</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>428</v>
+        <v>2196</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>10</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>43646</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>50412</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>17549</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>42492</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>46699</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>17709</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>43846</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>50570</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>29093</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>47451</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>55770</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>36700</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>48243</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>57960</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>4966</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>51510</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>58804</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>59954</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>50658</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>62384</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>66837</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>5492</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>52696</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>62322</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>70039</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>62675</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>66817</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>75145</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>7219</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +665,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="19.5" customWidth="1" min="1" max="1"/>
     <col width="21.5" customWidth="1" min="2" max="2"/>
     <col width="19.5" customWidth="1" min="4" max="4"/>
     <col width="18.5" customWidth="1" min="5" max="5"/>
@@ -544,11 +697,11 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>156337</v>
+        <v>76970</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
@@ -557,18 +710,18 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>18.93%</t>
+          <t>32.46%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>142291</v>
+        <v>65286</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
@@ -577,98 +730,98 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>8.88%</t>
+          <t>11.97%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Новосибирск</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>111548</v>
+        <v>62254</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Алматы</t>
+          <t>Новосибирск</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5.14%</t>
+          <t>2.71%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Уфа</t>
+          <t>Екатеринбург</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>106750</v>
+        <v>60962</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Новосибирск</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.37%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Екатеринбург</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>95270</v>
+        <v>52580</v>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Челябинск</t>
+          <t>Нижний Новгород</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.32%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Владивосток</t>
+          <t>Краснодар</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>87916</v>
+        <v>51644</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Тюмень</t>
+          <t>Ростов-на-Дону</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2.34%</t>
+          <t>2.09%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Набережные Челны</t>
+          <t>Челябинск</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>81142</v>
+        <v>51265</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
@@ -677,67 +830,67 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2.34%</t>
+          <t>2.07%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Иркутск</t>
+          <t>Самара</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>80357</v>
+        <v>50994</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Пермь</t>
+          <t>Краснодар</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.85%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Нижний Новгород</t>
+          <t>Пермь</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>74437</v>
+        <v>48089</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Ростов-на-Дону</t>
+          <t>Самара</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1.87%</t>
+          <t>1.43%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Краснодар</t>
+          <t>Нижний Новгород</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>70402</v>
+        <v>47662</v>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Нижний Новгород</t>
+          <t>Воронеж</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1.87%</t>
+          <t>1.41%</t>
         </is>
       </c>
     </row>

--- a/report.xlsx
+++ b/report.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,11 +442,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="21.5" customWidth="1" min="2" max="2"/>
-    <col width="35.5" customWidth="1" min="3" max="3"/>
-    <col width="24.5" customWidth="1" min="4" max="4"/>
-    <col width="38.5" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="24.5" customWidth="1" min="2" max="2"/>
+    <col width="38.5" customWidth="1" min="3" max="3"/>
+    <col width="27.5" customWidth="1" min="4" max="4"/>
+    <col width="41.5" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -644,6 +644,108 @@
       </c>
       <c r="E11" s="2" t="n">
         <v>7219</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>60935</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>72460</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>82823</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>8105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>58335</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>76879</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>131701</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>10062</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>69467</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>85300</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>115086</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>9016</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>73431</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>89791</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>102243</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>7113</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>82690</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>100987</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>57623</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>91795</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>116651</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>18294</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>1115</v>
       </c>
     </row>
   </sheetData>
